--- a/medicine/Mort/Cimetière_Jeanne-Jugan/Cimetière_Jeanne-Jugan.xlsx
+++ b/medicine/Mort/Cimetière_Jeanne-Jugan/Cimetière_Jeanne-Jugan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Jeanne-Jugan</t>
+          <t>Cimetière_Jeanne-Jugan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Jeanne-Jugan, également appelé vieux cimetière de Saint-Servan[1] et initialement cimetière de la Vigne-au-Chapt[2], est l'un des huit cimetières de Saint-Malo[3]. Situé dans le quartier de Saint-Servan, il fait face à l'ancien couvent des Récollets, rue Jeanne-Jugan. Il est créé en 1722[2] et devient le cimetière officiel de Saint-Servan en 1779[4]. Initialement destiné aux sépultures des pauvres, il abrite les tombes de trois amiraux, de marins servannais ainsi que de personnalités religieuses et politiques locales ; il a également un carré anglican où sont enterrés des marchands anglais installés à Saint-Servan au XIXe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Jeanne-Jugan, également appelé vieux cimetière de Saint-Servan et initialement cimetière de la Vigne-au-Chapt, est l'un des huit cimetières de Saint-Malo. Situé dans le quartier de Saint-Servan, il fait face à l'ancien couvent des Récollets, rue Jeanne-Jugan. Il est créé en 1722 et devient le cimetière officiel de Saint-Servan en 1779. Initialement destiné aux sépultures des pauvres, il abrite les tombes de trois amiraux, de marins servannais ainsi que de personnalités religieuses et politiques locales ; il a également un carré anglican où sont enterrés des marchands anglais installés à Saint-Servan au XIXe siècle.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Jeanne-Jugan</t>
+          <t>Cimetière_Jeanne-Jugan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Histoire et toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est initialement dénommé cimetière de la Vigne-au-Chapt, en référence à la vigne du chapitre qui poussait à cet endroit. La rue de la Vigne-au-Chapt est devenue par la suite rue Jeanne-Jugan, entraînant le changement de nom du cimetière. 
-Le terrain appartient à l'église de Saint-Servan au début du XVIIIe siècle ; en 1709 il est vendu à Madame de la Palissade. Mais le général de la paroisse, souhaitant le récupérer, intente un procès à cette dernière. Finalement, un accord est trouvé le 24 février 1722 : Madame de la Palissade cède une partie du terrain afin que l'on y installe un cimetière[2].
-La place vient à manquer dans le cimetière du Pré-Brécel[Note 1],où les corps sont entassés dans des fosses communes jusqu'en 1779, date à laquelle les voisins se plaignent des odeurs et s'inquiètent du risque de propagation de maladies[2]. En conséquence, tous ces corps sont transférés aux cimetière de la Vigne-au-Chapt[2], qui devient alors le cimetière officiel de Saint-Servan[4].
-En 1816, le reliquaire du cimetière est démoli et les ossements qu'il contenait sont enterrés[2]. Un calvaire est érigé en 1895[5].
-En 1900, Jules Haize indique que le lieu est appelé « l'ancien cimetière »[2].
-En 1921, un point d'eau y est installé, ce qui est considéré par L'Ouest-Éclair comme un luxe que la ville peut se permettre car « l'eau de Beaufort coule à souhait » [6].
-Dans les années 2010, un grand nombre de tombes est recouvert de végétation. C'est à la fois dû au manque d'entretien et à la volonté de préserver l'aspect naturel du cimetière. L'entretien du cimetière est effectué par l'Association malouine d’insertion et de développement social[1].
+Le terrain appartient à l'église de Saint-Servan au début du XVIIIe siècle ; en 1709 il est vendu à Madame de la Palissade. Mais le général de la paroisse, souhaitant le récupérer, intente un procès à cette dernière. Finalement, un accord est trouvé le 24 février 1722 : Madame de la Palissade cède une partie du terrain afin que l'on y installe un cimetière.
+La place vient à manquer dans le cimetière du Pré-Brécel[Note 1],où les corps sont entassés dans des fosses communes jusqu'en 1779, date à laquelle les voisins se plaignent des odeurs et s'inquiètent du risque de propagation de maladies. En conséquence, tous ces corps sont transférés aux cimetière de la Vigne-au-Chapt, qui devient alors le cimetière officiel de Saint-Servan.
+En 1816, le reliquaire du cimetière est démoli et les ossements qu'il contenait sont enterrés. Un calvaire est érigé en 1895.
+En 1900, Jules Haize indique que le lieu est appelé « l'ancien cimetière ».
+En 1921, un point d'eau y est installé, ce qui est considéré par L'Ouest-Éclair comme un luxe que la ville peut se permettre car « l'eau de Beaufort coule à souhait » .
+Dans les années 2010, un grand nombre de tombes est recouvert de végétation. C'est à la fois dû au manque d'entretien et à la volonté de préserver l'aspect naturel du cimetière. L'entretien du cimetière est effectué par l'Association malouine d’insertion et de développement social.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Jeanne-Jugan</t>
+          <t>Cimetière_Jeanne-Jugan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,18 +562,20 @@
           <t>Personnes enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Le cimetière de la Vigne-au-Chat était, au commencement, consacré aux enterrements des pauvres »[2]. Plusieurs personnalités de Saint-Servan y sont enterrées, telles que :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Le cimetière de la Vigne-au-Chat était, au commencement, consacré aux enterrements des pauvres ». Plusieurs personnalités de Saint-Servan y sont enterrées, telles que :
 le navigateur et amiral Pierre François Étienne Bouvet de Maisonneuve (1808-1876),
-l'amiral Auguste-Léopold Protet[7],
-l'amiral et sénateur François Thomas Tréhouart (1798-1873)[8]
+l'amiral Auguste-Léopold Protet,
+l'amiral et sénateur François Thomas Tréhouart (1798-1873)
 le contre-amiral François Colomban Étienne Marie Benic (1816-1876).
 Le corsaire René Noël Rosse (1767-1826) y est aussi enterré. On y trouve également plusieurs maires de Saint-Servan comme :
-Édouard Michel Gouazon (1811-1866)[8].
+Édouard Michel Gouazon (1811-1866).
 Mathurin Guillaume Guibert de La Noe (1765-1824), corsaire, négociant, armateur, maire de Saint-Servan de 1821 à 1824.
-Le cimetière comporte également une enclave protestante où sont enterrées des commerçants anglais venus s'installer à Saint-Servan au XIXe siècle[9]. Ce carré anglican est un cas que l'on retrouve également à Dinan, alors même que dans le reste de la Bretagne, les cimetières sont au XIXe siècle la source de tensions face au mécontentement de l'Église catholique vis-à-vis de ces nouveaux protestants[10]. 
-De nombreux tuberculeux venus profiter des bains de mer au XIXe siècle y sont enterrés[11].
+Le cimetière comporte également une enclave protestante où sont enterrées des commerçants anglais venus s'installer à Saint-Servan au XIXe siècle. Ce carré anglican est un cas que l'on retrouve également à Dinan, alors même que dans le reste de la Bretagne, les cimetières sont au XIXe siècle la source de tensions face au mécontentement de l'Église catholique vis-à-vis de ces nouveaux protestants. 
+De nombreux tuberculeux venus profiter des bains de mer au XIXe siècle y sont enterrés.
 </t>
         </is>
       </c>
